--- a/docs/StructureDefinition-space-radiation-summary.xlsx
+++ b/docs/StructureDefinition-space-radiation-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-space-radiation-summary.xlsx
+++ b/docs/StructureDefinition-space-radiation-summary.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -541,7 +541,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -631,7 +631,7 @@
     <t>Codes for diagnostic service sections.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections|4.0.1</t>
   </si>
   <si>
     <t>OBR-24</t>
@@ -668,7 +668,7 @@
     <t>Codes that describe Diagnostic Reports.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/report-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -722,7 +722,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -859,7 +859,7 @@
 Reported by</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -878,7 +878,7 @@
     <t>DiagnosticReport.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -929,7 +929,7 @@
     <t>DiagnosticReport.imagingStudy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ImagingStudy)
+    <t xml:space="preserve">Reference(ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -1037,7 +1037,7 @@
     <t>DiagnosticReport.media.link</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Media)
+    <t xml:space="preserve">Reference(Media|4.0.1)
 </t>
   </si>
   <si>
@@ -1084,7 +1084,7 @@
     <t>Diagnosis codes provided as adjuncts to the report.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SPRT].source[classCode=OBS, moodCode=EVN, code=LOINC:54531-9].value (type=CD)</t>
@@ -1463,7 +1463,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="40.6015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.42578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
@@ -2507,7 +2507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>141</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>175</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>185</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>209</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>230</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>251</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>276</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>291</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>324</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>337</v>
       </c>
@@ -5377,12 +5377,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN34">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-space-radiation-summary.xlsx
+++ b/docs/StructureDefinition-space-radiation-summary.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-space-radiation-summary.xlsx
+++ b/docs/StructureDefinition-space-radiation-summary.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-space-radiation-summary.xlsx
+++ b/docs/StructureDefinition-space-radiation-summary.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-space-radiation-summary.xlsx
+++ b/docs/StructureDefinition-space-radiation-summary.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-space-radiation-summary.xlsx
+++ b/docs/StructureDefinition-space-radiation-summary.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-space-radiation-summary.xlsx
+++ b/docs/StructureDefinition-space-radiation-summary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
